--- a/xlsx/公共政策_intext.xlsx
+++ b/xlsx/公共政策_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>政府部門</t>
+    <t>政府部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E8%80%85</t>
   </si>
   <si>
-    <t>競爭者</t>
+    <t>竞争者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%A8%B1%E7%B6%93%E7%87%9F%E6%AC%8A</t>
   </si>
   <si>
-    <t>特許經營權</t>
+    <t>特许经营权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>人力資源</t>
+    <t>人力资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E7%A9%BA%E4%B8%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立空中大學</t>
+    <t>国立空中大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公眾參與</t>
+    <t>公众参与</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_public_policy_topics_by_country</t>
